--- a/server/media/CrashDatabase.xlsx
+++ b/server/media/CrashDatabase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshaysharma/Desktop/untitled folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshaysharma/Desktop/untitled folder/alachua-traffic-app/server/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE97572-C369-8B46-A18B-52C6E0DA5396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2545B744-9570-F046-88D2-ADBB783BD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2800" windowWidth="16140" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
